--- a/[Data] WES_PASS/Patient-57-indels.xlsx
+++ b/[Data] WES_PASS/Patient-57-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="292">
   <si>
     <t>NG.8132_57B_lib74121_3782_5</t>
   </si>
@@ -43,550 +43,853 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_12198203</t>
   </si>
   <si>
-    <t>TNFRSF8</t>
+    <t>PCSK5 intron_variant:PCSK5 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_78809519   </t>
   </si>
   <si>
     <t>chr1_16862708</t>
   </si>
   <si>
+    <t>SEC14L1 intron_variant:SEC14L1 stop_gained:SEC14L1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_75208217   </t>
+  </si>
+  <si>
+    <t>chr1_25585583</t>
+  </si>
+  <si>
+    <t>PREX1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_47292577   </t>
+  </si>
+  <si>
+    <t>chr1_59359508</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>chr1_25585583</t>
-  </si>
-  <si>
-    <t>C1orf63</t>
-  </si>
-  <si>
-    <t>chr1_59359508</t>
-  </si>
-  <si>
-    <t>LINC01135:RP4-794H19.1</t>
+    <t xml:space="preserve">chr1_16862708   </t>
   </si>
   <si>
     <t>chr1_145297731</t>
   </si>
   <si>
-    <t>NBPF10:RP11-458D21.5</t>
+    <t>OSGIN1 intron_variant:RP11-505K9.4 intron_variant&amp;NMD_transcript_variant:RP11-505K9.4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_83984576   </t>
   </si>
   <si>
     <t>chr1_152277014</t>
   </si>
   <si>
-    <t>FLG-AS1:FLG</t>
+    <t xml:space="preserve">chr16_83984578   </t>
   </si>
   <si>
     <t>chr1_204125464</t>
   </si>
   <si>
-    <t>REN</t>
+    <t>TMCO3 intron_variant:TMCO3 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_114150356   </t>
   </si>
   <si>
     <t>chr1_210857483</t>
   </si>
   <si>
-    <t>KCNH1</t>
+    <t>RAB5A 3_prime_UTR_variant:PP2D1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_20025906   </t>
   </si>
   <si>
     <t>chr2_27522543</t>
   </si>
   <si>
-    <t>TRIM54</t>
+    <t>B3GAT1 splice_region_variant&amp;intron_variant:B3GAT1 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_134252906   </t>
   </si>
   <si>
     <t>chr2_202262283</t>
   </si>
   <si>
-    <t>STRADB:TRAK2</t>
+    <t>RPGRIP1 intron_variant:RPGRIP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_21788457   </t>
   </si>
   <si>
     <t>chr2_210794892</t>
   </si>
   <si>
-    <t>UNC80</t>
+    <t>INTU intron_variant:INTU intron_variant&amp;non_coding_transcript_variant:INTU intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_128621144   </t>
   </si>
   <si>
     <t>chr3_20020022</t>
   </si>
   <si>
-    <t>RAB5A</t>
+    <t>C1orf63 intron_variant&amp;non_coding_transcript_variant:C1orf63 intron_variant:C1orf63 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_25585583   </t>
   </si>
   <si>
     <t>chr3_20025906</t>
   </si>
   <si>
-    <t>RAB5A:PP2D1</t>
+    <t>RP11-578F21.12 intron_variant&amp;non_coding_transcript_variant:GOLGA6L7P intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_29091271   </t>
   </si>
   <si>
     <t>chr3_64184685</t>
   </si>
   <si>
-    <t>PRICKLE2:PRICKLE2-AS3</t>
+    <t>AC018865.5 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:FAR2P1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_130751346   </t>
   </si>
   <si>
     <t>chr3_97202651</t>
   </si>
   <si>
-    <t>EPHA6</t>
+    <t>PARP4 intron_variant:TPTE2P6 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_25016202   </t>
   </si>
   <si>
     <t>chr3_164779997</t>
   </si>
   <si>
+    <t>MR1 intron_variant&amp;non_coding_transcript_variant:MR1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_181024250   </t>
+  </si>
+  <si>
     <t>chr3_183521659</t>
   </si>
   <si>
-    <t>YEATS2</t>
+    <t>GREB1 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_11758652   </t>
   </si>
   <si>
     <t>chr4_31018445</t>
   </si>
   <si>
-    <t>PCDH7</t>
+    <t>PRICKLE2 intron_variant:PRICKLE2-AS3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_64184685   </t>
   </si>
   <si>
     <t>chr4_96073753</t>
   </si>
   <si>
-    <t>BMPR1B</t>
+    <t xml:space="preserve">chr8_55542978   </t>
   </si>
   <si>
     <t>chr4_128621144</t>
   </si>
   <si>
-    <t>INTU</t>
+    <t>MYT1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_62830359   </t>
   </si>
   <si>
     <t>chr5_19746956</t>
   </si>
   <si>
-    <t>CDH18</t>
+    <t xml:space="preserve">chrX_73802847   </t>
   </si>
   <si>
     <t>chr5_32387977</t>
   </si>
   <si>
-    <t>ZFR</t>
+    <t xml:space="preserve">chr3_197847012   </t>
   </si>
   <si>
     <t>chr5_80885693</t>
   </si>
   <si>
-    <t>SSBP2</t>
+    <t>PRAMEF11 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_12887236   </t>
   </si>
   <si>
     <t>chr5_86669949</t>
   </si>
   <si>
-    <t>RASA1</t>
+    <t>PPP2R5E intron_variant&amp;non_coding_transcript_variant:PPP2R5E intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_63881729   </t>
   </si>
   <si>
     <t>chr5_96139259</t>
   </si>
   <si>
-    <t>ERAP1</t>
+    <t xml:space="preserve">chr20_54823639   </t>
   </si>
   <si>
     <t>chr5_168043288</t>
   </si>
   <si>
+    <t>BMPR1B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_96073753   </t>
+  </si>
+  <si>
     <t>chr6_79654843</t>
   </si>
   <si>
-    <t>PHIP:IRAK1BP1</t>
+    <t>FLG-AS1 intron_variant&amp;non_coding_transcript_variant:FLG missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_152277044   </t>
   </si>
   <si>
     <t>chr6_111764102</t>
   </si>
   <si>
-    <t>REV3L</t>
+    <t>NCSTN intron_variant&amp;non_coding_transcript_variant:NCSTN intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_160325939   </t>
   </si>
   <si>
     <t>chr6_116774703</t>
   </si>
   <si>
+    <t>SELL intron_variant&amp;non_coding_transcript_variant:C1orf112 intron_variant&amp;non_coding_transcript_variant:SELL intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_169680614   </t>
+  </si>
+  <si>
     <t>chr6_130475945</t>
   </si>
   <si>
-    <t>SAMD3</t>
+    <t>SPTBN1 missense_variant:SPTBN1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_54880810   </t>
   </si>
   <si>
     <t>chr6_144803547</t>
   </si>
   <si>
-    <t>UTRN</t>
+    <t>APLF intron_variant&amp;NMD_transcript_variant:APLF intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_68717167   </t>
   </si>
   <si>
     <t>chr7_1658060</t>
   </si>
   <si>
+    <t>KANSL3 missense_variant&amp;NMD_transcript_variant:KANSL3 3_prime_UTR_variant&amp;NMD_transcript_variant:KANSL3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:KANSL3 missense_variant:KANSL3 intron_variant:KANSL3 5_prime_UTR_variant:KANSL3 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_97297146   </t>
+  </si>
+  <si>
     <t>chr7_27788052</t>
   </si>
   <si>
-    <t>TAX1BP1</t>
+    <t>STRADB intron_variant:TRAK2 frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_202262283   </t>
   </si>
   <si>
     <t>chr7_99013263</t>
   </si>
   <si>
-    <t>BUD31</t>
+    <t>CCSER1 intron_variant&amp;NMD_transcript_variant:CCSER1 intron_variant&amp;non_coding_transcript_variant:CCSER1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_91844301   </t>
   </si>
   <si>
     <t>chr7_139090366</t>
   </si>
   <si>
-    <t>LUC7L2:C7orf55-LUC7L2</t>
+    <t>TAS2R1 missense_variant:CTD-2001E22.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_9629667   </t>
   </si>
   <si>
     <t>chr7_140055425</t>
   </si>
   <si>
-    <t>SLC37A3</t>
+    <t>CDH18 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_19571669   </t>
   </si>
   <si>
     <t>chr7_143094327</t>
   </si>
   <si>
-    <t>EPHA1</t>
+    <t>PLCXD3 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_41313698   </t>
   </si>
   <si>
     <t>chr8_92983159</t>
   </si>
   <si>
-    <t>RUNX1T1</t>
+    <t>TAX1BP1 intron_variant:TAX1BP1 intron_variant&amp;NMD_transcript_variant:TAX1BP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_27788052   </t>
   </si>
   <si>
     <t>chr9_68429057</t>
   </si>
   <si>
+    <t>PALM2-AKAP2 intron_variant:PALM2 intron_variant:AKAP2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_112687468   </t>
+  </si>
+  <si>
     <t>chr9_78809519</t>
   </si>
   <si>
-    <t>PCSK5</t>
+    <t>STRBP intron_variant&amp;NMD_transcript_variant:STRBP intron_variant&amp;non_coding_transcript_variant:MIR600HG non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_125873724   </t>
   </si>
   <si>
     <t>chr9_79999547</t>
   </si>
   <si>
-    <t>VPS13A</t>
+    <t>GARNL3 intron_variant:GARNL3 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_130106417   </t>
   </si>
   <si>
     <t>chr9_88571261</t>
   </si>
   <si>
-    <t>NAA35</t>
+    <t>LRRC8A missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_131671483   </t>
   </si>
   <si>
     <t>chr9_116187645</t>
   </si>
   <si>
-    <t>C9orf43</t>
+    <t xml:space="preserve">chr11_6079189   </t>
   </si>
   <si>
     <t>chr11_6662745</t>
   </si>
   <si>
+    <t xml:space="preserve">chr13_103703764   </t>
+  </si>
+  <si>
     <t>chr11_48168287</t>
   </si>
   <si>
-    <t>PTPRJ</t>
+    <t>ATL1 intron_variant&amp;NMD_transcript_variant:ATL1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_51097813   </t>
   </si>
   <si>
     <t>chr11_120310605</t>
   </si>
   <si>
-    <t>ARHGEF12</t>
+    <t>CCDC175 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_60005598   </t>
   </si>
   <si>
     <t>chr11_134252906</t>
   </si>
   <si>
-    <t>B3GAT1</t>
+    <t>GABRG3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_27586148   </t>
   </si>
   <si>
     <t>chr12_15722207</t>
   </si>
   <si>
-    <t>PTPRO</t>
+    <t>GGT6 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:GGT6 5_prime_UTR_variant:GGT6 intron_variant:GGT6 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_4462713   </t>
   </si>
   <si>
     <t>chr12_31820564</t>
   </si>
   <si>
-    <t>METTL20</t>
+    <t>NF1 missense_variant:NF1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:NF1 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t>chr17_29654796   NF1 SNV missense_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t>NF1:NF1:NF1</t>
+  </si>
+  <si>
+    <t>missense_variant:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:3_prime_UTR_variant&amp;NMD_transcript_variant</t>
   </si>
   <si>
     <t>chr12_43847524</t>
   </si>
   <si>
-    <t>ADAMTS20</t>
+    <t>IKZF3 missense_variant:IKZF3 intron_variant:IKZF3 missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_37948937   </t>
   </si>
   <si>
     <t>chr12_50395166</t>
   </si>
   <si>
-    <t>RACGAP1</t>
+    <t>EPB41L3 splice_region_variant&amp;intron_variant:EPB41L3 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant:EPB41L3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_5406768   </t>
   </si>
   <si>
     <t>chr12_53343225</t>
   </si>
   <si>
-    <t>KRT8:KRT18</t>
+    <t xml:space="preserve">chr18_13885081   </t>
   </si>
   <si>
     <t>chr13_33315183</t>
   </si>
   <si>
-    <t>PDS5B</t>
+    <t xml:space="preserve">chr20_47835835   </t>
   </si>
   <si>
     <t>chr13_114150356</t>
   </si>
   <si>
-    <t>TMCO3</t>
+    <t xml:space="preserve">chr22_46835207   </t>
   </si>
   <si>
     <t>chr14_21788457</t>
   </si>
   <si>
-    <t>RPGRIP1</t>
+    <t xml:space="preserve">chrX_8522268   </t>
   </si>
   <si>
     <t>chr14_23397167</t>
   </si>
   <si>
-    <t>PRMT5</t>
+    <t xml:space="preserve">chrX_30577681   </t>
   </si>
   <si>
     <t>chr14_38281839</t>
   </si>
   <si>
-    <t>TTC6</t>
+    <t xml:space="preserve">chrX_78011060   </t>
   </si>
   <si>
     <t>chr14_63881729</t>
   </si>
   <si>
-    <t>PPP2R5E</t>
+    <t xml:space="preserve">chrX_118215511   </t>
   </si>
   <si>
     <t>chr14_94129223</t>
   </si>
   <si>
-    <t>UNC79</t>
+    <t>ATP1B4 stop_gained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_119509379   </t>
   </si>
   <si>
     <t>chr14_106478074</t>
   </si>
   <si>
+    <t>CDH18 intron_variant&amp;non_coding_transcript_variant:CDH18 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_19746956   </t>
+  </si>
+  <si>
     <t>chr15_51686809</t>
   </si>
   <si>
-    <t>GLDN</t>
+    <t>NCOR1 intron_variant:NCOR1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_16011663   </t>
+  </si>
+  <si>
+    <t>NCOR1:NCOR1</t>
+  </si>
+  <si>
+    <t>intron_variant:intron_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr16_4643051</t>
   </si>
   <si>
+    <t>XYLB intron_variant:XYLB intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_38408182   </t>
+  </si>
+  <si>
     <t>chr16_33539698</t>
   </si>
   <si>
+    <t xml:space="preserve">chr6_70638077   </t>
+  </si>
+  <si>
     <t>chr16_50368677</t>
   </si>
   <si>
-    <t>BRD7</t>
+    <t>CSMD3 intron_variant:CSMD3 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_113326381   </t>
+  </si>
+  <si>
+    <t>CSMD3:CSMD3</t>
   </si>
   <si>
     <t>chr16_70935160</t>
   </si>
   <si>
-    <t>HYDIN</t>
+    <t xml:space="preserve">chr14_106478074   </t>
   </si>
   <si>
     <t>chr16_83984578</t>
   </si>
   <si>
-    <t>OSGIN1:RP11-505K9.4</t>
+    <t>PCSK2 intron_variant&amp;non_coding_transcript_variant:PCSK2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_17339267   </t>
   </si>
   <si>
     <t>chr17_1960404</t>
   </si>
   <si>
-    <t>HIC1</t>
+    <t>SEC14L6 intron_variant:SIRPAP1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_30938678   </t>
   </si>
   <si>
     <t>chr17_16011663</t>
   </si>
   <si>
-    <t>NCOR1</t>
+    <t xml:space="preserve">chrX_79817589   </t>
   </si>
   <si>
     <t>chr17_39274311</t>
   </si>
   <si>
+    <t xml:space="preserve">chr22_30938713   </t>
+  </si>
+  <si>
     <t>chr17_57685253</t>
   </si>
   <si>
-    <t>DHX40</t>
+    <t xml:space="preserve">chr2_130751186   </t>
   </si>
   <si>
     <t>chr17_61841219</t>
   </si>
   <si>
-    <t>CCDC47</t>
+    <t>HSBP1P2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_111173163   </t>
   </si>
   <si>
     <t>chr17_77770173</t>
   </si>
   <si>
-    <t>CBX8</t>
+    <t xml:space="preserve">chr16_4643051   </t>
   </si>
   <si>
     <t>chr18_14250360</t>
   </si>
   <si>
-    <t>RP11-757O6.1</t>
+    <t>ANKRD36C intron_variant&amp;NMD_transcript_variant:ANKRD36C intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_96624310   </t>
   </si>
   <si>
     <t>chr18_21089320</t>
   </si>
   <si>
-    <t>C18orf8:NPC1</t>
+    <t xml:space="preserve">chr4_122997459   </t>
   </si>
   <si>
     <t>chr18_34465686</t>
   </si>
   <si>
-    <t>KIAA1328</t>
+    <t>TERT missense_variant:TERT missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_1294607   </t>
+  </si>
+  <si>
+    <t>TERT:TERT</t>
+  </si>
+  <si>
+    <t>missense_variant:missense_variant&amp;NMD_transcript_variant</t>
   </si>
   <si>
     <t>chr18_63492038</t>
   </si>
   <si>
-    <t>CDH7</t>
+    <t xml:space="preserve">chr18_14250344   </t>
   </si>
   <si>
     <t>chr19_2204355</t>
   </si>
   <si>
+    <t>RP11-757O6.1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_14250360   </t>
+  </si>
+  <si>
     <t>chr19_3648561</t>
   </si>
   <si>
-    <t>PIP5K1C</t>
+    <t xml:space="preserve">chr20_54823684   </t>
   </si>
   <si>
     <t>chr19_6856886</t>
   </si>
   <si>
-    <t>VAV1</t>
+    <t>NBPF1 intron_variant&amp;NMD_transcript_variant:NBPF1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_16910024   </t>
   </si>
   <si>
     <t>chr19_43016835</t>
   </si>
   <si>
-    <t>CEACAM1:LIPE-AS1</t>
+    <t xml:space="preserve">chrX_93959425   </t>
   </si>
   <si>
     <t>chr19_49926530</t>
   </si>
   <si>
+    <t>LINC01135 intron_variant&amp;non_coding_transcript_variant:RP4-794H19.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_59359508   </t>
+  </si>
+  <si>
     <t>chr19_52896072</t>
   </si>
   <si>
+    <t>C1orf61 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:C1orf61 intron_variant:C1orf61 intron_variant&amp;non_coding_transcript_variant:C1orf61 stop_gained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_156390045   </t>
+  </si>
+  <si>
     <t>chr20_37524521</t>
   </si>
   <si>
-    <t>PPP1R16B</t>
+    <t>GUCA1C intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_108672337   </t>
   </si>
   <si>
     <t>chr20_40714592</t>
   </si>
   <si>
-    <t>PTPRT</t>
+    <t>ST3GAL1P1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:UBA6-AS1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_68582134   </t>
   </si>
   <si>
     <t>chr20_47292577</t>
   </si>
   <si>
-    <t>PREX1</t>
+    <t xml:space="preserve">chr4_70274741   </t>
   </si>
   <si>
     <t>chr20_54823639</t>
   </si>
   <si>
+    <t>TBC1D9B intron_variant:TBC1D9B non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_179306850   </t>
+  </si>
+  <si>
     <t>chr20_54823684</t>
   </si>
   <si>
+    <t>RELN intron_variant:CTB-107G13.1 intron_variant&amp;non_coding_transcript_variant:RELN intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_103123230   </t>
+  </si>
+  <si>
     <t>chr20_62245802</t>
   </si>
   <si>
-    <t>GMEB2</t>
+    <t xml:space="preserve">chr9_68429018   </t>
   </si>
   <si>
     <t>chr21_33044256</t>
   </si>
   <si>
-    <t>SCAF4</t>
+    <t>IFI35 missense_variant:IFI35 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_41165317   </t>
   </si>
   <si>
     <t>chr21_47349729</t>
   </si>
   <si>
-    <t>PCBP3:PRED62</t>
+    <t>PAGE2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_55116761   </t>
   </si>
   <si>
     <t>chr22_30938678</t>
   </si>
   <si>
-    <t>SEC14L6:SIRPAP1</t>
+    <t>FRMPD3 missense_variant:FRMPD3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_106793366   </t>
   </si>
   <si>
     <t>chr22_32827423</t>
   </si>
   <si>
-    <t>BPIFC</t>
+    <t>FRG1 intron_variant:FRG1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_190878340   </t>
   </si>
   <si>
     <t>chrX_13776300</t>
   </si>
   <si>
-    <t>OFD1</t>
+    <t xml:space="preserve">chr9_34726187   </t>
   </si>
   <si>
     <t>chrX_32404258</t>
   </si>
   <si>
-    <t>DMD</t>
+    <t>HIC1 inframe_deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_1960404   </t>
   </si>
   <si>
     <t>chrX_37527510</t>
   </si>
   <si>
-    <t>LANCL3:TM4SF2</t>
+    <t>EPHA6 intron_variant:EPHA6 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_97202651   </t>
   </si>
   <si>
     <t>chrX_49459124</t>
   </si>
   <si>
+    <t>EPHA1 intron_variant:EPHA1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_143094327   </t>
+  </si>
+  <si>
     <t>chrX_55116761</t>
   </si>
   <si>
-    <t>PAGE2</t>
+    <t>RUNX1T1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RUNX1T1 intron_variant:RUNX1T1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_92983159   </t>
+  </si>
+  <si>
+    <t>RUNX1T1:RUNX1T1:RUNX1T1</t>
+  </si>
+  <si>
+    <t>non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:intron_variant:intron_variant&amp;NMD_transcript_variant</t>
   </si>
   <si>
     <t>chrX_73802835</t>
   </si>
   <si>
+    <t>P2RX4 intron_variant:P2RX4 intron_variant&amp;NMD_transcript_variant:P2RX4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:P2RX4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_121670683   </t>
+  </si>
+  <si>
     <t>chrX_73802847</t>
   </si>
   <si>
+    <t>GLDN intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_51686809   </t>
+  </si>
+  <si>
     <t>chrX_104888232</t>
   </si>
   <si>
-    <t>IL1RAPL2</t>
+    <t>BMPR1APS2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_121232936   </t>
   </si>
 </sst>
 </file>
@@ -918,13 +1221,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -952,10 +1255,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -979,12 +1288,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1008,12 +1320,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1037,12 +1352,15 @@
         <v>0.235294117647059</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1066,12 +1384,15 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1095,12 +1416,15 @@
         <v>0.037037037037037</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1124,12 +1448,15 @@
         <v>0.0227272727272727</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1153,12 +1480,15 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1182,12 +1512,15 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1211,12 +1544,15 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1240,12 +1576,15 @@
         <v>0.138211382113821</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1269,12 +1608,15 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1298,12 +1640,15 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1327,12 +1672,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1356,12 +1704,15 @@
         <v>0.135135135135135</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1385,12 +1736,15 @@
         <v>0.129032258064516</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1414,12 +1768,15 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1443,12 +1800,15 @@
         <v>0.105263157894737</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1472,12 +1832,15 @@
         <v>0.04</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1501,12 +1864,15 @@
         <v>0.037037037037037</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1530,12 +1896,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1559,12 +1928,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1588,12 +1960,15 @@
         <v>0.0476190476190476</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1617,12 +1992,15 @@
         <v>0.0625</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1646,12 +2024,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1675,12 +2056,15 @@
         <v>0.211267605633803</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1704,12 +2088,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1733,12 +2120,15 @@
         <v>0.2</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1762,12 +2152,15 @@
         <v>0.285714285714286</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1791,12 +2184,15 @@
         <v>0.05</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1820,12 +2216,15 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1849,12 +2248,15 @@
         <v>0.0561797752808989</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1878,12 +2280,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1907,12 +2312,15 @@
         <v>0.238636363636364</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1936,12 +2344,15 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1965,12 +2376,15 @@
         <v>0.0476190476190476</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1994,12 +2408,15 @@
         <v>0.037037037037037</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2023,12 +2440,15 @@
         <v>0.0975609756097561</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2052,12 +2472,15 @@
         <v>0.25</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2081,12 +2504,15 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2110,12 +2536,15 @@
         <v>0.105263157894737</v>
       </c>
       <c r="I41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2139,12 +2568,15 @@
         <v>0.0298507462686567</v>
       </c>
       <c r="I42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2168,12 +2600,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2197,12 +2632,15 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2226,12 +2664,15 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2255,12 +2696,15 @@
         <v>0.0540540540540541</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2284,12 +2728,15 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2313,12 +2760,15 @@
         <v>0.1</v>
       </c>
       <c r="I48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2342,12 +2792,15 @@
         <v>0.115384615384615</v>
       </c>
       <c r="I49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2371,12 +2824,21 @@
         <v>0.172413793103448</v>
       </c>
       <c r="I50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J50" t="s">
+        <v>149</v>
+      </c>
+      <c r="K50" t="s">
+        <v>150</v>
+      </c>
+      <c r="L50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2400,12 +2862,15 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2429,12 +2894,15 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2458,12 +2926,15 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2487,12 +2958,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2516,12 +2990,15 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2545,12 +3022,15 @@
         <v>0.04</v>
       </c>
       <c r="I56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2574,12 +3054,15 @@
         <v>0.157894736842105</v>
       </c>
       <c r="I57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2603,12 +3086,15 @@
         <v>0.0625</v>
       </c>
       <c r="I58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2632,12 +3118,15 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2661,12 +3150,15 @@
         <v>0.0689655172413793</v>
       </c>
       <c r="I60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2690,12 +3182,15 @@
         <v>0.1</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2719,12 +3214,21 @@
         <v>0.176470588235294</v>
       </c>
       <c r="I62" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J62" t="s">
+        <v>180</v>
+      </c>
+      <c r="K62" t="s">
+        <v>181</v>
+      </c>
+      <c r="L62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2748,12 +3252,15 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2777,12 +3284,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2806,12 +3316,21 @@
         <v>0.0363636363636364</v>
       </c>
       <c r="I65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J65" t="s">
+        <v>190</v>
+      </c>
+      <c r="K65" t="s">
+        <v>191</v>
+      </c>
+      <c r="L65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2835,12 +3354,15 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2864,12 +3386,15 @@
         <v>0.05</v>
       </c>
       <c r="I67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2893,12 +3418,15 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>198</v>
+      </c>
+      <c r="J68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2922,12 +3450,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2951,12 +3482,15 @@
         <v>0.0789473684210526</v>
       </c>
       <c r="I70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>198</v>
+      </c>
+      <c r="J70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2980,12 +3514,15 @@
         <v>0.0526315789473684</v>
       </c>
       <c r="I71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3009,12 +3546,15 @@
         <v>0.0606060606060606</v>
       </c>
       <c r="I72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>207</v>
+      </c>
+      <c r="J72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3038,12 +3578,15 @@
         <v>0.0348837209302326</v>
       </c>
       <c r="I73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3067,12 +3610,15 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>212</v>
+      </c>
+      <c r="J74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3096,12 +3642,15 @@
         <v>0.1</v>
       </c>
       <c r="I75" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3125,12 +3674,21 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>217</v>
+      </c>
+      <c r="J76" t="s">
+        <v>218</v>
+      </c>
+      <c r="K76" t="s">
+        <v>219</v>
+      </c>
+      <c r="L76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3154,12 +3712,15 @@
         <v>0.245901639344262</v>
       </c>
       <c r="I77" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3183,12 +3744,15 @@
         <v>0.0789473684210526</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>224</v>
+      </c>
+      <c r="J78" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3212,12 +3776,15 @@
         <v>0.0476190476190476</v>
       </c>
       <c r="I79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3241,12 +3808,15 @@
         <v>0.1</v>
       </c>
       <c r="I80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>229</v>
+      </c>
+      <c r="J80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3270,12 +3840,15 @@
         <v>0.125</v>
       </c>
       <c r="I81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3299,12 +3872,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="I82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>234</v>
+      </c>
+      <c r="J82" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3328,12 +3904,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="I83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>237</v>
+      </c>
+      <c r="J83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3357,12 +3936,15 @@
         <v>0.133333333333333</v>
       </c>
       <c r="I84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>240</v>
+      </c>
+      <c r="J84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3386,12 +3968,15 @@
         <v>0.130434782608696</v>
       </c>
       <c r="I85" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>243</v>
+      </c>
+      <c r="J85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3415,12 +4000,15 @@
         <v>0.107142857142857</v>
       </c>
       <c r="I86" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3444,12 +4032,15 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>248</v>
+      </c>
+      <c r="J87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3473,12 +4064,15 @@
         <v>0.03125</v>
       </c>
       <c r="I88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>251</v>
+      </c>
+      <c r="J88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3502,12 +4096,15 @@
         <v>0.0434782608695652</v>
       </c>
       <c r="I89" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3531,12 +4128,15 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>256</v>
+      </c>
+      <c r="J90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3560,12 +4160,15 @@
         <v>0.2</v>
       </c>
       <c r="I91" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>259</v>
+      </c>
+      <c r="J91" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3589,12 +4192,15 @@
         <v>0.0645161290322581</v>
       </c>
       <c r="I92" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>262</v>
+      </c>
+      <c r="J92" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3618,12 +4224,15 @@
         <v>0.0222222222222222</v>
       </c>
       <c r="I93" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>265</v>
+      </c>
+      <c r="J93" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3647,12 +4256,15 @@
         <v>0.25</v>
       </c>
       <c r="I94" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3676,12 +4288,15 @@
         <v>0.0465116279069767</v>
       </c>
       <c r="I95" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>270</v>
+      </c>
+      <c r="J95" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3705,12 +4320,15 @@
         <v>0.136363636363636</v>
       </c>
       <c r="I96" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>273</v>
+      </c>
+      <c r="J96" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3734,12 +4352,15 @@
         <v>0.0454545454545455</v>
       </c>
       <c r="I97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>276</v>
+      </c>
+      <c r="J97" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3763,12 +4384,21 @@
         <v>0.04</v>
       </c>
       <c r="I98" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>279</v>
+      </c>
+      <c r="J98" t="s">
+        <v>280</v>
+      </c>
+      <c r="K98" t="s">
+        <v>281</v>
+      </c>
+      <c r="L98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3792,12 +4422,15 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>284</v>
+      </c>
+      <c r="J99" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3821,12 +4454,15 @@
         <v>0.0655737704918033</v>
       </c>
       <c r="I100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>287</v>
+      </c>
+      <c r="J100" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3850,7 +4486,10 @@
         <v>0.138888888888889</v>
       </c>
       <c r="I101" t="s">
-        <v>190</v>
+        <v>290</v>
+      </c>
+      <c r="J101" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
